--- a/data/nak/수질/병성천-1_2020.xlsx
+++ b/data/nak/수질/병성천-1_2020.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\사업관련\환경AI\모듈작업\water-quality\data\nak\수질\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="112">
   <si>
     <t>dt</t>
   </si>
@@ -348,77 +355,36 @@
   </si>
   <si>
     <t>20200707</t>
-  </si>
-  <si>
-    <t>2020-07-16 12:00</t>
-  </si>
-  <si>
-    <t>20200714</t>
-  </si>
-  <si>
-    <t>2020-07-24 12:00</t>
-  </si>
-  <si>
-    <t>20200720</t>
-  </si>
-  <si>
-    <t>2020-08-10 12:00</t>
-  </si>
-  <si>
-    <t>20200819</t>
-  </si>
-  <si>
-    <t>2020-08-20 12:00</t>
-  </si>
-  <si>
-    <t>20200825</t>
-  </si>
-  <si>
-    <t>2020-09-06 12:00</t>
-  </si>
-  <si>
-    <t>20200902</t>
-  </si>
-  <si>
-    <t>2020-09-12 12:00</t>
-  </si>
-  <si>
-    <t>20200908</t>
-  </si>
-  <si>
-    <t>2020-09-18 12:00</t>
-  </si>
-  <si>
-    <t>20200915</t>
-  </si>
-  <si>
-    <t>2020-09-24 12:00</t>
-  </si>
-  <si>
-    <t>20200922</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -436,7 +402,13 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -444,16 +416,24 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -462,10 +442,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -711,83 +691,82 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:BJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.71" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.86" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.57" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.71" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.86" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.57" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.86" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.43" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.43" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.71" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.43" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.43" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.43" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.71" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.75" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.71" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.71" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.71" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.29" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.43" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.43" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.57" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.43" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.57" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.57" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.71" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.43" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.86" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.71" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6.57" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6.57" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.71" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.43" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.43" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.86" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.86" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.43" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.29" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.86" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.43" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.43" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.57" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.43" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.71" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.71" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.43" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -975,7 +954,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1010,7 +989,7 @@
         <v>3.121</v>
       </c>
       <c r="AE2" s="4">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AF2">
         <v>3</v>
@@ -1022,7 +1001,7 @@
         <v>0.5</v>
       </c>
       <c r="AI2" s="4">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AJ2">
         <v>12</v>
@@ -1031,7 +1010,7 @@
         <v>3.9350000000000001</v>
       </c>
       <c r="AL2" s="5">
-        <v>0.050000000000000003</v>
+        <v>0.05</v>
       </c>
       <c r="AM2" s="3">
         <v>3.448</v>
@@ -1040,22 +1019,22 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AO2" s="4">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AP2" s="3">
-        <v>0.032000000000000001</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="AQ2" s="3">
         <v>3.871</v>
       </c>
       <c r="AR2" s="3">
-        <v>0.039</v>
+        <v>3.9E-2</v>
       </c>
       <c r="AS2" s="4">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -1090,19 +1069,19 @@
         <v>3.1080000000000001</v>
       </c>
       <c r="AE3" s="4">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="AF3" s="4">
-        <v>3.2999999999999998</v>
+        <v>3.3</v>
       </c>
       <c r="AG3">
         <v>306</v>
       </c>
       <c r="AH3" s="4">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="AI3" s="4">
-        <v>34.399999999999999</v>
+        <v>34.4</v>
       </c>
       <c r="AJ3" s="4">
         <v>12.9</v>
@@ -1111,31 +1090,31 @@
         <v>3.843</v>
       </c>
       <c r="AL3" s="3">
-        <v>0.072999999999999995</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="AM3" s="3">
         <v>1.881</v>
       </c>
       <c r="AN3" s="4">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="AO3" s="4">
         <v>2.5</v>
       </c>
       <c r="AP3" s="3">
-        <v>0.033000000000000002</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="AQ3" s="3">
         <v>3.827</v>
       </c>
       <c r="AR3" s="3">
-        <v>0.050999999999999997</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="AS3" s="4">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -1170,16 +1149,16 @@
         <v>2.0339999999999998</v>
       </c>
       <c r="AE4" s="4">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AF4" s="4">
-        <v>3.7999999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="AG4">
         <v>256</v>
       </c>
       <c r="AH4" s="4">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AI4">
         <v>28</v>
@@ -1191,31 +1170,31 @@
         <v>3.161</v>
       </c>
       <c r="AL4" s="3">
-        <v>0.063</v>
+        <v>6.3E-2</v>
       </c>
       <c r="AM4" s="3">
         <v>3.734</v>
       </c>
       <c r="AN4" s="4">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="AO4" s="4">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="AP4" s="5">
-        <v>0.029999999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="AQ4" s="3">
         <v>2.9670000000000001</v>
       </c>
       <c r="AR4" s="3">
-        <v>0.043999999999999997</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="AS4" s="4">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -1244,16 +1223,16 @@
         <v>76</v>
       </c>
       <c r="AC5" s="5">
-        <v>0.26000000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="AD5" s="3">
         <v>2.649</v>
       </c>
       <c r="AE5" s="4">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="AF5" s="4">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="AG5">
         <v>263</v>
@@ -1265,37 +1244,37 @@
         <v>10</v>
       </c>
       <c r="AJ5" s="4">
-        <v>13.300000000000001</v>
+        <v>13.3</v>
       </c>
       <c r="AK5" s="3">
         <v>3.3769999999999998</v>
       </c>
       <c r="AL5" s="3">
-        <v>0.044999999999999998</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AM5" s="3">
         <v>2.5680000000000001</v>
       </c>
       <c r="AN5" s="4">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AO5" s="4">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AP5" s="3">
-        <v>0.021000000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AQ5" s="5">
-        <v>3.3399999999999999</v>
+        <v>3.34</v>
       </c>
       <c r="AR5" s="3">
-        <v>0.036999999999999998</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="AS5" s="4">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -1330,10 +1309,10 @@
         <v>3.3010000000000002</v>
       </c>
       <c r="AE6" s="4">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="AF6" s="4">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AG6">
         <v>328</v>
@@ -1351,7 +1330,7 @@
         <v>4.2939999999999996</v>
       </c>
       <c r="AL6" s="3">
-        <v>0.052999999999999999</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="AM6" s="3">
         <v>1.5569999999999999</v>
@@ -1363,19 +1342,19 @@
         <v>1.7</v>
       </c>
       <c r="AP6" s="3">
-        <v>0.035999999999999997</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="AQ6" s="3">
         <v>4.0709999999999997</v>
       </c>
       <c r="AR6" s="5">
-        <v>0.040000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="AS6" s="4">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -1404,25 +1383,25 @@
         <v>80</v>
       </c>
       <c r="AC7" s="4">
-        <v>0.20000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="AD7" s="3">
         <v>2.8679999999999999</v>
       </c>
       <c r="AE7" s="4">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="AF7" s="4">
-        <v>9.9000000000000004</v>
+        <v>9.9</v>
       </c>
       <c r="AG7">
         <v>152</v>
       </c>
       <c r="AH7" s="4">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="AI7" s="4">
-        <v>85.299999999999997</v>
+        <v>85.3</v>
       </c>
       <c r="AJ7" s="4">
         <v>12.1</v>
@@ -1437,10 +1416,10 @@
         <v>33.756</v>
       </c>
       <c r="AN7" s="4">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="AO7" s="4">
-        <v>5.7999999999999998</v>
+        <v>5.8</v>
       </c>
       <c r="AP7" s="3">
         <v>0.106</v>
@@ -1455,7 +1434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -1499,10 +1478,10 @@
         <v>276</v>
       </c>
       <c r="AH8" s="4">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AI8" s="4">
-        <v>22.399999999999999</v>
+        <v>22.4</v>
       </c>
       <c r="AJ8" s="4">
         <v>11.9</v>
@@ -1511,7 +1490,7 @@
         <v>3.4180000000000001</v>
       </c>
       <c r="AL8" s="3">
-        <v>0.058999999999999997</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="AM8" s="3">
         <v>3.7010000000000001</v>
@@ -1523,19 +1502,19 @@
         <v>4</v>
       </c>
       <c r="AP8" s="3">
-        <v>0.041000000000000002</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="AQ8" s="3">
         <v>3.415</v>
       </c>
       <c r="AR8" s="3">
-        <v>0.042000000000000003</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="AS8" s="4">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -1570,10 +1549,10 @@
         <v>3.073</v>
       </c>
       <c r="AE9" s="4">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="AF9" s="4">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AG9">
         <v>284</v>
@@ -1585,13 +1564,13 @@
         <v>10.199999999999999</v>
       </c>
       <c r="AJ9" s="4">
-        <v>12.800000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="AK9" s="3">
         <v>3.4820000000000002</v>
       </c>
       <c r="AL9" s="3">
-        <v>0.048000000000000001</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AM9" s="3">
         <v>2.351</v>
@@ -1603,19 +1582,19 @@
         <v>2.5</v>
       </c>
       <c r="AP9" s="3">
-        <v>0.025000000000000001</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AQ9" s="3">
         <v>3.4489999999999998</v>
       </c>
       <c r="AR9" s="3">
-        <v>0.036999999999999998</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="AS9" s="4">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -1650,16 +1629,16 @@
         <v>2.895</v>
       </c>
       <c r="AE10" s="4">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF10" s="4">
-        <v>3.7999999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="AG10">
         <v>308</v>
       </c>
       <c r="AH10" s="4">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="AI10" s="4">
         <v>8.8000000000000007</v>
@@ -1671,7 +1650,7 @@
         <v>3.609</v>
       </c>
       <c r="AL10" s="3">
-        <v>0.035999999999999997</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="AM10" s="3">
         <v>1.696</v>
@@ -1683,19 +1662,19 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="AP10" s="3">
-        <v>0.021000000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AQ10" s="3">
         <v>3.573</v>
       </c>
       <c r="AR10" s="3">
-        <v>0.033000000000000002</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="AS10" s="4">
-        <v>3.2999999999999998</v>
+        <v>3.3</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -1724,13 +1703,13 @@
         <v>88</v>
       </c>
       <c r="AC11" s="3">
-        <v>0.041000000000000002</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="AD11" s="3">
         <v>2.8839999999999999</v>
       </c>
       <c r="AE11" s="4">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="AF11" s="4">
         <v>4.9000000000000004</v>
@@ -1742,7 +1721,7 @@
         <v>2</v>
       </c>
       <c r="AI11" s="4">
-        <v>9.4000000000000004</v>
+        <v>9.4</v>
       </c>
       <c r="AJ11" s="4">
         <v>12.5</v>
@@ -1751,16 +1730,16 @@
         <v>3.4359999999999999</v>
       </c>
       <c r="AL11" s="3">
-        <v>0.056000000000000001</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="AM11" s="5">
-        <v>0.85999999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AN11" s="4">
         <v>17.399999999999999</v>
       </c>
       <c r="AO11" s="4">
-        <v>8.9000000000000004</v>
+        <v>8.9</v>
       </c>
       <c r="AP11" s="5">
         <v>0.02</v>
@@ -1769,13 +1748,13 @@
         <v>3.2549999999999999</v>
       </c>
       <c r="AR11" s="3">
-        <v>0.044999999999999998</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AS11" s="4">
-        <v>3.7000000000000002</v>
+        <v>3.7</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -1804,13 +1783,13 @@
         <v>90</v>
       </c>
       <c r="AC12" s="3">
-        <v>0.044999999999999998</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AD12" s="3">
         <v>2.9670000000000001</v>
       </c>
       <c r="AE12" s="4">
-        <v>8.5999999999999996</v>
+        <v>8.6</v>
       </c>
       <c r="AF12">
         <v>6</v>
@@ -1819,10 +1798,10 @@
         <v>400</v>
       </c>
       <c r="AH12" s="4">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AI12" s="4">
-        <v>10.800000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="AJ12" s="4">
         <v>13.9</v>
@@ -1831,13 +1810,13 @@
         <v>3.552</v>
       </c>
       <c r="AL12" s="3">
-        <v>0.051999999999999998</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="AM12" s="3">
         <v>0.71099999999999997</v>
       </c>
       <c r="AN12" s="4">
-        <v>17.199999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="AO12" s="4">
         <v>34.799999999999997</v>
@@ -1846,16 +1825,16 @@
         <v>0.01</v>
       </c>
       <c r="AQ12" s="5">
-        <v>3.4300000000000002</v>
+        <v>3.43</v>
       </c>
       <c r="AR12" s="3">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="AS12" s="4">
         <v>4.5</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -1890,19 +1869,19 @@
         <v>1.958</v>
       </c>
       <c r="AE13" s="4">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="AF13" s="4">
-        <v>6.2999999999999998</v>
+        <v>6.3</v>
       </c>
       <c r="AG13">
         <v>282</v>
       </c>
       <c r="AH13" s="4">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="AI13" s="4">
-        <v>30.399999999999999</v>
+        <v>30.4</v>
       </c>
       <c r="AJ13">
         <v>12</v>
@@ -1923,19 +1902,19 @@
         <v>14</v>
       </c>
       <c r="AP13" s="3">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="AQ13" s="3">
         <v>2.5379999999999998</v>
       </c>
       <c r="AR13" s="3">
-        <v>0.058000000000000003</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="AS13">
         <v>5</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -1970,28 +1949,28 @@
         <v>1.399</v>
       </c>
       <c r="AE14" s="4">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="AF14" s="4">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="AG14">
         <v>328</v>
       </c>
       <c r="AH14" s="4">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="AI14" s="4">
-        <v>9.5999999999999996</v>
+        <v>9.6</v>
       </c>
       <c r="AJ14" s="4">
-        <v>9.4000000000000004</v>
+        <v>9.4</v>
       </c>
       <c r="AK14" s="3">
         <v>2.3650000000000002</v>
       </c>
       <c r="AL14" s="5">
-        <v>0.080000000000000002</v>
+        <v>0.08</v>
       </c>
       <c r="AM14" s="3">
         <v>2.3740000000000001</v>
@@ -2000,22 +1979,22 @@
         <v>20</v>
       </c>
       <c r="AO14" s="4">
-        <v>19.800000000000001</v>
+        <v>19.8</v>
       </c>
       <c r="AP14" s="3">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AQ14" s="3">
         <v>2.222</v>
       </c>
       <c r="AR14" s="3">
-        <v>0.043999999999999997</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="AS14" s="4">
-        <v>6.2999999999999998</v>
+        <v>6.3</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -2050,7 +2029,7 @@
         <v>1.599</v>
       </c>
       <c r="AE15" s="4">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AF15" s="4">
         <v>8.1999999999999993</v>
@@ -2071,31 +2050,31 @@
         <v>2.8090000000000002</v>
       </c>
       <c r="AL15" s="4">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AM15" s="3">
         <v>2.4319999999999999</v>
       </c>
       <c r="AN15" s="4">
-        <v>21.300000000000001</v>
+        <v>21.3</v>
       </c>
       <c r="AO15" s="4">
-        <v>9.5999999999999996</v>
+        <v>9.6</v>
       </c>
       <c r="AP15" s="3">
-        <v>0.048000000000000001</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AQ15" s="3">
         <v>2.7909999999999999</v>
       </c>
       <c r="AR15" s="3">
-        <v>0.072999999999999995</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="AS15" s="4">
-        <v>6.7999999999999998</v>
+        <v>6.8</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -2130,22 +2109,22 @@
         <v>1.534</v>
       </c>
       <c r="AE16" s="4">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AF16" s="4">
-        <v>12.300000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="AG16">
         <v>223</v>
       </c>
       <c r="AH16" s="4">
-        <v>5.5999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="AI16">
         <v>130</v>
       </c>
       <c r="AJ16" s="4">
-        <v>9.0999999999999996</v>
+        <v>9.1</v>
       </c>
       <c r="AK16" s="3">
         <v>3.8540000000000001</v>
@@ -2157,13 +2136,13 @@
         <v>22.475999999999999</v>
       </c>
       <c r="AN16" s="4">
-        <v>17.699999999999999</v>
+        <v>17.7</v>
       </c>
       <c r="AO16" s="4">
         <v>15.1</v>
       </c>
       <c r="AP16" s="3">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="AQ16" s="3">
         <v>3.5110000000000001</v>
@@ -2172,10 +2151,10 @@
         <v>0.13</v>
       </c>
       <c r="AS16" s="4">
-        <v>9.0999999999999996</v>
+        <v>9.1</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -2204,22 +2183,22 @@
         <v>101</v>
       </c>
       <c r="AC17" s="3">
-        <v>0.083000000000000004</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="AD17" s="3">
         <v>1.5449999999999999</v>
       </c>
       <c r="AE17" s="4">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="AF17" s="4">
-        <v>6.2000000000000002</v>
+        <v>6.2</v>
       </c>
       <c r="AG17">
         <v>267</v>
       </c>
       <c r="AH17" s="4">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AI17">
         <v>10</v>
@@ -2228,10 +2207,10 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="AK17" s="5">
-        <v>2.3500000000000001</v>
+        <v>2.35</v>
       </c>
       <c r="AL17" s="3">
-        <v>0.079000000000000001</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="AM17" s="3">
         <v>4.0679999999999996</v>
@@ -2240,22 +2219,22 @@
         <v>23.5</v>
       </c>
       <c r="AO17" s="4">
-        <v>5.7999999999999998</v>
+        <v>5.8</v>
       </c>
       <c r="AP17" s="3">
-        <v>0.041000000000000002</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="AQ17" s="3">
         <v>2.181</v>
       </c>
       <c r="AR17" s="3">
-        <v>0.067000000000000004</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="AS17">
         <v>5</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -2284,7 +2263,7 @@
         <v>103</v>
       </c>
       <c r="AC18" s="3">
-        <v>0.029000000000000001</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="AD18" s="3">
         <v>1.1519999999999999</v>
@@ -2293,49 +2272,49 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AF18" s="4">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="AG18">
         <v>291</v>
       </c>
       <c r="AH18" s="4">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="AI18" s="4">
         <v>8.8000000000000007</v>
       </c>
       <c r="AJ18" s="4">
-        <v>9.4000000000000004</v>
+        <v>9.4</v>
       </c>
       <c r="AK18" s="5">
         <v>1.99</v>
       </c>
       <c r="AL18" s="3">
-        <v>0.066000000000000003</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="AM18" s="3">
         <v>2.069</v>
       </c>
       <c r="AN18" s="4">
-        <v>23.600000000000001</v>
+        <v>23.6</v>
       </c>
       <c r="AO18" s="4">
         <v>34.299999999999997</v>
       </c>
       <c r="AP18" s="3">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AQ18" s="3">
         <v>1.7410000000000001</v>
       </c>
       <c r="AR18" s="3">
-        <v>0.037999999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AS18" s="4">
-        <v>6.2999999999999998</v>
+        <v>6.3</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -2364,7 +2343,7 @@
         <v>105</v>
       </c>
       <c r="AC19" s="3">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AD19" s="3">
         <v>1.036</v>
@@ -2379,10 +2358,10 @@
         <v>331</v>
       </c>
       <c r="AH19" s="4">
-        <v>5.2999999999999998</v>
+        <v>5.3</v>
       </c>
       <c r="AI19" s="4">
-        <v>12.800000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="AJ19" s="4">
         <v>10.6</v>
@@ -2391,31 +2370,31 @@
         <v>1.917</v>
       </c>
       <c r="AL19" s="5">
-        <v>0.070000000000000007</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AM19" s="5">
-        <v>1.6699999999999999</v>
+        <v>1.67</v>
       </c>
       <c r="AN19" s="4">
-        <v>30.800000000000001</v>
+        <v>30.8</v>
       </c>
       <c r="AO19" s="4">
-        <v>69.200000000000003</v>
+        <v>69.2</v>
       </c>
       <c r="AP19" s="3">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AQ19" s="3">
         <v>1.589</v>
       </c>
       <c r="AR19" s="3">
-        <v>0.033000000000000002</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="AS19" s="4">
         <v>8.5</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -2444,16 +2423,16 @@
         <v>107</v>
       </c>
       <c r="AC20" s="3">
-        <v>0.087999999999999995</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="AD20" s="3">
         <v>1.4510000000000001</v>
       </c>
       <c r="AE20" s="4">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AF20" s="4">
-        <v>9.9000000000000004</v>
+        <v>9.9</v>
       </c>
       <c r="AG20">
         <v>198</v>
@@ -2462,10 +2441,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AI20" s="4">
-        <v>37.600000000000001</v>
+        <v>37.6</v>
       </c>
       <c r="AJ20" s="4">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AK20" s="3">
         <v>2.3639999999999999</v>
@@ -2480,10 +2459,10 @@
         <v>25.5</v>
       </c>
       <c r="AO20" s="4">
-        <v>3.7999999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="AP20" s="3">
-        <v>0.088999999999999996</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="AQ20" s="3">
         <v>2.056</v>
@@ -2492,10 +2471,10 @@
         <v>0.126</v>
       </c>
       <c r="AS20" s="4">
-        <v>6.7000000000000002</v>
+        <v>6.7</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>108</v>
       </c>
@@ -2524,7 +2503,7 @@
         <v>109</v>
       </c>
       <c r="AC21" s="3">
-        <v>0.049000000000000002</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="AD21" s="3">
         <v>1.099</v>
@@ -2533,7 +2512,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AF21" s="4">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="AG21">
         <v>268</v>
@@ -2551,31 +2530,31 @@
         <v>1.8140000000000001</v>
       </c>
       <c r="AL21" s="3">
-        <v>0.076999999999999999</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="AM21" s="3">
         <v>3.1120000000000001</v>
       </c>
       <c r="AN21" s="4">
-        <v>29.800000000000001</v>
+        <v>29.8</v>
       </c>
       <c r="AO21" s="4">
-        <v>22.600000000000001</v>
+        <v>22.6</v>
       </c>
       <c r="AP21" s="3">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="AQ21" s="3">
         <v>1.5760000000000001</v>
       </c>
       <c r="AR21" s="5">
-        <v>0.059999999999999998</v>
+        <v>0.06</v>
       </c>
       <c r="AS21" s="4">
-        <v>5.2999999999999998</v>
+        <v>5.3</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>110</v>
       </c>
@@ -2604,13 +2583,13 @@
         <v>111</v>
       </c>
       <c r="AC22" s="3">
-        <v>0.084000000000000005</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="AD22" s="3">
         <v>1.952</v>
       </c>
       <c r="AE22" s="4">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AF22" s="4">
         <v>10.6</v>
@@ -2625,7 +2604,7 @@
         <v>113.3</v>
       </c>
       <c r="AJ22" s="4">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AK22" s="3">
         <v>2.859</v>
@@ -2637,7 +2616,7 @@
         <v>33.917999999999999</v>
       </c>
       <c r="AN22" s="4">
-        <v>24.399999999999999</v>
+        <v>24.4</v>
       </c>
       <c r="AO22" s="4">
         <v>8.1999999999999993</v>
@@ -2655,647 +2634,9 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="2">
-        <v>36.431471999999999</v>
-      </c>
-      <c r="F23" s="2">
-        <v>128.23669699999999</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC23" s="5">
-        <v>0.080000000000000002</v>
-      </c>
-      <c r="AD23" s="5">
-        <v>1.98</v>
-      </c>
-      <c r="AE23" s="4">
-        <v>6.5999999999999996</v>
-      </c>
-      <c r="AF23" s="4">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AG23">
-        <v>122</v>
-      </c>
-      <c r="AH23">
-        <v>2</v>
-      </c>
-      <c r="AI23" s="4">
-        <v>55.200000000000003</v>
-      </c>
-      <c r="AJ23" s="4">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AK23" s="3">
-        <v>2.8929999999999998</v>
-      </c>
-      <c r="AL23" s="3">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="AM23" s="3">
-        <v>92.751999999999995</v>
-      </c>
-      <c r="AN23" s="4">
-        <v>19.800000000000001</v>
-      </c>
-      <c r="AO23" s="4">
-        <v>3.7999999999999998</v>
-      </c>
-      <c r="AP23" s="3">
-        <v>0.094</v>
-      </c>
-      <c r="AQ23" s="3">
-        <v>2.7109999999999999</v>
-      </c>
-      <c r="AR23" s="3">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="AS23" s="4">
-        <v>5.9000000000000004</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="2">
-        <v>36.431471999999999</v>
-      </c>
-      <c r="F24" s="2">
-        <v>128.23669699999999</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>0.071999999999999995</v>
-      </c>
-      <c r="AD24" s="3">
-        <v>2.0630000000000002</v>
-      </c>
-      <c r="AE24" s="4">
-        <v>7.2000000000000002</v>
-      </c>
-      <c r="AF24" s="4">
-        <v>4.2000000000000002</v>
-      </c>
-      <c r="AG24">
-        <v>189</v>
-      </c>
-      <c r="AH24" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AI24" s="4">
-        <v>17.199999999999999</v>
-      </c>
-      <c r="AJ24" s="4">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AK24" s="3">
-        <v>2.6789999999999998</v>
-      </c>
-      <c r="AL24" s="3">
-        <v>0.058999999999999997</v>
-      </c>
-      <c r="AM24" s="3">
-        <v>23.736999999999998</v>
-      </c>
-      <c r="AN24" s="4">
-        <v>22.300000000000001</v>
-      </c>
-      <c r="AO24" s="4">
-        <v>4.7999999999999998</v>
-      </c>
-      <c r="AP24" s="3">
-        <v>0.044999999999999998</v>
-      </c>
-      <c r="AQ24" s="3">
-        <v>2.492</v>
-      </c>
-      <c r="AR24" s="3">
-        <v>0.052999999999999999</v>
-      </c>
-      <c r="AS24" s="4">
-        <v>3.7000000000000002</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="2">
-        <v>36.431471999999999</v>
-      </c>
-      <c r="F25" s="2">
-        <v>128.23669699999999</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC25" s="3">
-        <v>0.053999999999999999</v>
-      </c>
-      <c r="AD25" s="3">
-        <v>1.9470000000000001</v>
-      </c>
-      <c r="AE25" s="4">
-        <v>7.7000000000000002</v>
-      </c>
-      <c r="AF25" s="4">
-        <v>4.2000000000000002</v>
-      </c>
-      <c r="AG25">
-        <v>196</v>
-      </c>
-      <c r="AH25" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AI25" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AJ25" s="4">
-        <v>8.0999999999999996</v>
-      </c>
-      <c r="AK25" s="3">
-        <v>2.4820000000000002</v>
-      </c>
-      <c r="AL25" s="3">
-        <v>0.069000000000000006</v>
-      </c>
-      <c r="AM25" s="3">
-        <v>7.5119999999999996</v>
-      </c>
-      <c r="AN25" s="4">
-        <v>27.899999999999999</v>
-      </c>
-      <c r="AO25" s="4">
-        <v>6.7999999999999998</v>
-      </c>
-      <c r="AP25" s="3">
-        <v>0.053999999999999999</v>
-      </c>
-      <c r="AQ25" s="3">
-        <v>2.2320000000000002</v>
-      </c>
-      <c r="AR25" s="3">
-        <v>0.063</v>
-      </c>
-      <c r="AS25" s="4">
-        <v>3.2000000000000002</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="2">
-        <v>36.431471999999999</v>
-      </c>
-      <c r="F26" s="2">
-        <v>128.23669699999999</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC26" s="5">
-        <v>0.070000000000000007</v>
-      </c>
-      <c r="AD26" s="3">
-        <v>1.6359999999999999</v>
-      </c>
-      <c r="AE26" s="4">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AF26" s="4">
-        <v>4.7999999999999998</v>
-      </c>
-      <c r="AG26">
-        <v>205</v>
-      </c>
-      <c r="AH26" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="AI26">
-        <v>6</v>
-      </c>
-      <c r="AJ26" s="4">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AK26" s="3">
-        <v>2.1440000000000001</v>
-      </c>
-      <c r="AL26" s="3">
-        <v>0.074999999999999997</v>
-      </c>
-      <c r="AM26" s="3">
-        <v>6.8659999999999997</v>
-      </c>
-      <c r="AN26">
-        <v>28</v>
-      </c>
-      <c r="AO26" s="4">
-        <v>14.300000000000001</v>
-      </c>
-      <c r="AP26" s="3">
-        <v>0.050999999999999997</v>
-      </c>
-      <c r="AQ26" s="5">
-        <v>1.9199999999999999</v>
-      </c>
-      <c r="AR26" s="3">
-        <v>0.067000000000000004</v>
-      </c>
-      <c r="AS26" s="4">
-        <v>3.7999999999999998</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="2">
-        <v>36.431471999999999</v>
-      </c>
-      <c r="F27" s="2">
-        <v>128.23669699999999</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>0.067000000000000004</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>1.3959999999999999</v>
-      </c>
-      <c r="AE27" s="4">
-        <v>7.7999999999999998</v>
-      </c>
-      <c r="AF27" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AG27">
-        <v>159</v>
-      </c>
-      <c r="AH27" s="4">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="AI27" s="4">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="AJ27" s="4">
-        <v>7.7000000000000002</v>
-      </c>
-      <c r="AK27" s="3">
-        <v>1.774</v>
-      </c>
-      <c r="AL27" s="3">
-        <v>0.090999999999999998</v>
-      </c>
-      <c r="AM27" s="5">
-        <v>20.120000000000001</v>
-      </c>
-      <c r="AN27" s="4">
-        <v>24.300000000000001</v>
-      </c>
-      <c r="AO27">
-        <v>5</v>
-      </c>
-      <c r="AP27" s="3">
-        <v>0.063</v>
-      </c>
-      <c r="AQ27" s="3">
-        <v>1.5960000000000001</v>
-      </c>
-      <c r="AR27" s="3">
-        <v>0.074999999999999997</v>
-      </c>
-      <c r="AS27" s="4">
-        <v>3.2999999999999998</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="2">
-        <v>36.431471999999999</v>
-      </c>
-      <c r="F28" s="2">
-        <v>128.23669699999999</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC28" s="3">
-        <v>0.066000000000000003</v>
-      </c>
-      <c r="AD28" s="3">
-        <v>1.6639999999999999</v>
-      </c>
-      <c r="AE28" s="4">
-        <v>7.2999999999999998</v>
-      </c>
-      <c r="AF28" s="4">
-        <v>6.2999999999999998</v>
-      </c>
-      <c r="AG28">
-        <v>115</v>
-      </c>
-      <c r="AH28" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AI28" s="4">
-        <v>22.399999999999999</v>
-      </c>
-      <c r="AJ28" s="4">
-        <v>8.5999999999999996</v>
-      </c>
-      <c r="AK28" s="3">
-        <v>2.056</v>
-      </c>
-      <c r="AL28" s="3">
-        <v>0.115</v>
-      </c>
-      <c r="AM28" s="3">
-        <v>46.097999999999999</v>
-      </c>
-      <c r="AN28" s="4">
-        <v>21.399999999999999</v>
-      </c>
-      <c r="AO28" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AP28" s="3">
-        <v>0.108</v>
-      </c>
-      <c r="AQ28" s="3">
-        <v>1.9450000000000001</v>
-      </c>
-      <c r="AR28" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="AS28" s="4">
-        <v>3.8999999999999999</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="2">
-        <v>36.431471999999999</v>
-      </c>
-      <c r="F29" s="2">
-        <v>128.23669699999999</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC29" s="3">
-        <v>0.094</v>
-      </c>
-      <c r="AD29" s="3">
-        <v>2.1419999999999999</v>
-      </c>
-      <c r="AE29" s="4">
-        <v>7.5999999999999996</v>
-      </c>
-      <c r="AF29" s="4">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="AG29">
-        <v>192</v>
-      </c>
-      <c r="AH29">
-        <v>1</v>
-      </c>
-      <c r="AI29" s="4">
-        <v>6.5999999999999996</v>
-      </c>
-      <c r="AJ29" s="4">
-        <v>8.5999999999999996</v>
-      </c>
-      <c r="AK29" s="3">
-        <v>2.7189999999999999</v>
-      </c>
-      <c r="AL29" s="3">
-        <v>0.072999999999999995</v>
-      </c>
-      <c r="AM29" s="3">
-        <v>9.7349999999999994</v>
-      </c>
-      <c r="AN29" s="4">
-        <v>22.699999999999999</v>
-      </c>
-      <c r="AO29" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="AP29" s="3">
-        <v>0.042000000000000003</v>
-      </c>
-      <c r="AQ29" s="3">
-        <v>2.5230000000000001</v>
-      </c>
-      <c r="AR29" s="3">
-        <v>0.070999999999999994</v>
-      </c>
-      <c r="AS29" s="4">
-        <v>2.6000000000000001</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="2">
-        <v>36.431471999999999</v>
-      </c>
-      <c r="F30" s="2">
-        <v>128.23669699999999</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC30" s="3">
-        <v>0.095000000000000001</v>
-      </c>
-      <c r="AD30" s="3">
-        <v>1.738</v>
-      </c>
-      <c r="AE30">
-        <v>8</v>
-      </c>
-      <c r="AF30" s="4">
-        <v>3.6000000000000001</v>
-      </c>
-      <c r="AG30">
-        <v>207</v>
-      </c>
-      <c r="AH30" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AI30" s="4">
-        <v>5.2000000000000002</v>
-      </c>
-      <c r="AJ30" s="4">
-        <v>9.5999999999999996</v>
-      </c>
-      <c r="AK30" s="3">
-        <v>2.254</v>
-      </c>
-      <c r="AL30" s="3">
-        <v>0.062</v>
-      </c>
-      <c r="AM30" s="3">
-        <v>7.407</v>
-      </c>
-      <c r="AN30" s="4">
-        <v>20.5</v>
-      </c>
-      <c r="AO30" s="4">
-        <v>5.9000000000000004</v>
-      </c>
-      <c r="AP30" s="3">
-        <v>0.035999999999999997</v>
-      </c>
-      <c r="AQ30" s="5">
-        <v>2.1400000000000001</v>
-      </c>
-      <c r="AR30" s="3">
-        <v>0.049000000000000002</v>
-      </c>
-      <c r="AS30" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="31"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>